--- a/apartmentManage/Data/employee_report.xlsx
+++ b/apartmentManage/Data/employee_report.xlsx
@@ -56,64 +56,64 @@
     <t>6.500.000</t>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1.666,667</t>
+  </si>
+  <si>
+    <t>6.498.333,333</t>
+  </si>
+  <si>
+    <t>Lê Thị H</t>
+  </si>
+  <si>
+    <t>Bảo vệ</t>
+  </si>
+  <si>
+    <t>8.000.000</t>
+  </si>
+  <si>
+    <t>5.833,333</t>
+  </si>
+  <si>
+    <t>8.005.833,333</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn K</t>
+  </si>
+  <si>
+    <t>Ca tối</t>
+  </si>
+  <si>
+    <t>7.500.000</t>
+  </si>
+  <si>
+    <t>7.498.333,333</t>
+  </si>
+  <si>
+    <t>Phạm Văn I</t>
+  </si>
+  <si>
+    <t>Lễ tân</t>
+  </si>
+  <si>
+    <t>7.000.000</t>
+  </si>
+  <si>
+    <t>15.000</t>
+  </si>
+  <si>
+    <t>6.985.000</t>
+  </si>
+  <si>
+    <t>Trần Văn G</t>
+  </si>
+  <si>
     <t>4.166,667</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>6.504.166,667</t>
-  </si>
-  <si>
-    <t>Lê Thị H</t>
-  </si>
-  <si>
-    <t>Bảo vệ</t>
-  </si>
-  <si>
-    <t>8.000.000</t>
-  </si>
-  <si>
-    <t>1.666,667</t>
-  </si>
-  <si>
-    <t>8.001.666,667</t>
-  </si>
-  <si>
-    <t>Nguyễn Văn K</t>
-  </si>
-  <si>
-    <t>Ca tối</t>
-  </si>
-  <si>
-    <t>7.500.000</t>
-  </si>
-  <si>
-    <t>7.501.666,667</t>
-  </si>
-  <si>
-    <t>Phạm Văn I</t>
-  </si>
-  <si>
-    <t>Lễ tân</t>
-  </si>
-  <si>
-    <t>7.000.000</t>
-  </si>
-  <si>
-    <t>199.166,667</t>
-  </si>
-  <si>
-    <t>6.800.833,333</t>
-  </si>
-  <si>
-    <t>Trần Văn G</t>
-  </si>
-  <si>
-    <t>195.833,333</t>
-  </si>
-  <si>
-    <t>7.304.166,667</t>
+    <t>7.495.833,333</t>
   </si>
 </sst>
 </file>
@@ -172,7 +172,7 @@
     <col min="6" max="6" width="12.5859375" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="11.6953125" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="9.9453125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.17578125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="9.9453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="13.84765625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -222,10 +222,10 @@
         <v>12</v>
       </c>
       <c r="E2" t="n" s="0">
-        <v>4.0</v>
+        <v>11.0</v>
       </c>
       <c r="F2" t="n" s="0">
-        <v>2165.0</v>
+        <v>5938.0</v>
       </c>
       <c r="G2" t="s" s="0">
         <v>13</v>
@@ -254,10 +254,10 @@
         <v>12</v>
       </c>
       <c r="E3" t="n" s="0">
-        <v>4.0</v>
+        <v>11.0</v>
       </c>
       <c r="F3" t="n" s="0">
-        <v>2162.0</v>
+        <v>5947.0</v>
       </c>
       <c r="G3" t="s" s="0">
         <v>19</v>
@@ -266,7 +266,7 @@
         <v>20</v>
       </c>
       <c r="I3" t="s" s="0">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J3" t="s" s="0">
         <v>21</v>
@@ -286,16 +286,16 @@
         <v>23</v>
       </c>
       <c r="E4" t="n" s="0">
-        <v>4.0</v>
+        <v>11.0</v>
       </c>
       <c r="F4" t="n" s="0">
-        <v>2162.0</v>
+        <v>5938.0</v>
       </c>
       <c r="G4" t="s" s="0">
         <v>24</v>
       </c>
       <c r="H4" t="s" s="0">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="I4" t="s" s="0">
         <v>15</v>
@@ -318,16 +318,16 @@
         <v>23</v>
       </c>
       <c r="E5" t="n" s="0">
-        <v>4.0</v>
+        <v>11.0</v>
       </c>
       <c r="F5" t="n" s="0">
-        <v>1921.0</v>
+        <v>5922.0</v>
       </c>
       <c r="G5" t="s" s="0">
         <v>28</v>
       </c>
       <c r="H5" t="s" s="0">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I5" t="s" s="0">
         <v>29</v>
@@ -350,16 +350,16 @@
         <v>23</v>
       </c>
       <c r="E6" t="n" s="0">
-        <v>4.0</v>
+        <v>11.0</v>
       </c>
       <c r="F6" t="n" s="0">
-        <v>1925.0</v>
+        <v>5935.0</v>
       </c>
       <c r="G6" t="s" s="0">
         <v>24</v>
       </c>
       <c r="H6" t="s" s="0">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I6" t="s" s="0">
         <v>32</v>
